--- a/ExcelJS_ReadImage/data/users.xlsx
+++ b/ExcelJS_ReadImage/data/users.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Home\sources\managed\CheatCodes.JavaScript\ExcelJS_ReadImage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23DBD35-0CCD-4E72-B466-F359FC5526A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C092EB-B368-4186-8E04-5B23E1A3B6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +71,18 @@
   </si>
   <si>
     <t>Joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,10 +126,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -219,6 +248,100 @@
         <a:xfrm>
           <a:off x="2308860" y="3810000"/>
           <a:ext cx="2857500" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1676516</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1470782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418BA21D-64D7-64D9-603E-92EBA384C99F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2346960" y="281940"/>
+          <a:ext cx="1341236" cy="1409822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2034540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4526280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1691640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E775A8-7ACB-45DB-BF81-8142A2A19482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4046220" y="1828800"/>
+          <a:ext cx="2491740" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -493,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -506,54 +629,91 @@
     <col min="6" max="6" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="119.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="119.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
+        <v>31662</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> B2 + 5</f>
+        <v>35</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3">
+        <v>45315</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> B3 + 5</f>
+        <v>31</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="169.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4">
+        <f xml:space="preserve"> B4 + 5</f>
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="171.6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:7" ht="171.6" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelJS_ReadImage/data/users.xlsx
+++ b/ExcelJS_ReadImage/data/users.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Home\sources\managed\CheatCodes.JavaScript\ExcelJS_ReadImage\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C092EB-B368-4186-8E04-5B23E1A3B6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64602501-AA6C-4864-9377-D050F5EE21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32244" yWindow="1572" windowWidth="28284" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,67 +28,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Photo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>나이</t>
+  </si>
+  <si>
+    <t>성별</t>
+  </si>
+  <si>
+    <t>사진</t>
+  </si>
+  <si>
+    <t>생일</t>
+  </si>
+  <si>
+    <t>추가계산</t>
+  </si>
+  <si>
+    <t>결혼여부</t>
+  </si>
+  <si>
+    <t>사진2</t>
   </si>
   <si>
     <t>Bruce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Male</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Female</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Joy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Added</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -128,8 +118,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,25 +146,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>259081</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>20000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100000</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1600201</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1522782</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="762000" cy="762000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6870F336-A301-444D-B3F9-050CAF6EE5B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -183,7 +168,168 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>111440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="762000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2397440" y="1403020"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>20000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="762000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="762000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA33C03-744E-4149-8CC6-5F8B015EA00E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6225540" y="358140"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>982980</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64000179-5D3C-3A09-A6AE-7639FC78307D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -196,8 +342,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2270761" y="1851660"/>
-          <a:ext cx="1341120" cy="1408482"/>
+          <a:off x="6217920" y="1287780"/>
+          <a:ext cx="861060" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -208,23 +354,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3154680</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1905000</xdr:rowOff>
+      <xdr:rowOff>868680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
+        <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304FF9CB-E665-DC8C-5539-B5F13EDEDAB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02D1BA4-BD40-E0BA-4ABA-85CDE7B7F609}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -233,7 +379,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -246,102 +392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2308860" y="3810000"/>
-          <a:ext cx="2857500" cy="1600200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1676516</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1470782</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418BA21D-64D7-64D9-603E-92EBA384C99F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2346960" y="281940"/>
-          <a:ext cx="1341236" cy="1409822"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2034540</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4526280</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1691640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E775A8-7ACB-45DB-BF81-8142A2A19482}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4046220" y="1828800"/>
-          <a:ext cx="2491740" cy="1600200"/>
+          <a:off x="6225540" y="2331720"/>
+          <a:ext cx="784860" cy="784860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -364,44 +416,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -431,12 +483,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -475,249 +527,312 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="63.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" customWidth="1"/>
+    <col min="1" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="119.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3">
         <v>31662</v>
       </c>
-      <c r="F2">
-        <f xml:space="preserve"> B2 + 5</f>
+      <c r="F2" s="2">
         <v>35</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3">
         <v>45315</v>
       </c>
-      <c r="F3">
-        <f xml:space="preserve"> B3 + 5</f>
+      <c r="F3" s="2">
         <v>31</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="79.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4">
-        <f xml:space="preserve"> B4 + 5</f>
+      <c r="E4" s="2">
         <v>31</v>
       </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="171.6" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelJS_ReadImage/data/users.xlsx
+++ b/ExcelJS_ReadImage/data/users.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64602501-AA6C-4864-9377-D050F5EE21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20A9ECB-0CF7-4ADE-A23C-3C81002EEAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32244" yWindow="1572" windowWidth="28284" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="28284" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:H4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -782,7 +782,8 @@
         <v>31662</v>
       </c>
       <c r="F2" s="2">
-        <v>35</v>
+        <f xml:space="preserve"> SUM(B2, 100)</f>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -804,7 +805,8 @@
         <v>45315</v>
       </c>
       <c r="F3" s="2">
-        <v>31</v>
+        <f t="shared" ref="F3:F4" si="0" xml:space="preserve"> SUM(B3, 100)</f>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>0</v>
@@ -825,7 +827,10 @@
       <c r="E4" s="2">
         <v>31</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
